--- a/output/report.xlsx
+++ b/output/report.xlsx
@@ -510,7 +510,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physe.2023.115833.pdf</t>
+        </is>
+      </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
@@ -537,7 +541,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjs_s11734-024-01164-9.pdf</t>
+        </is>
+      </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
@@ -564,7 +572,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-024-12994-1.pdf</t>
+        </is>
+      </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
@@ -591,7 +603,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-024-13215-5.pdf</t>
+        </is>
+      </c>
       <c r="I5" t="b">
         <v>0</v>
       </c>
@@ -618,7 +634,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-024-13076-y.pdf</t>
+        </is>
+      </c>
       <c r="I6" t="b">
         <v>0</v>
       </c>
@@ -645,7 +665,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-024-13021-z.pdf</t>
+        </is>
+      </c>
       <c r="I7" t="b">
         <v>0</v>
       </c>
@@ -672,7 +696,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-024-13228-0.pdf</t>
+        </is>
+      </c>
       <c r="I8" t="b">
         <v>0</v>
       </c>
@@ -699,7 +727,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-024-12979-0.pdf</t>
+        </is>
+      </c>
       <c r="I9" t="b">
         <v>0</v>
       </c>
@@ -726,7 +758,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-024-13012-0.pdf</t>
+        </is>
+      </c>
       <c r="I10" t="b">
         <v>0</v>
       </c>
@@ -753,7 +789,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-024-12439-9.pdf</t>
+        </is>
+      </c>
       <c r="I11" t="b">
         <v>0</v>
       </c>
@@ -780,7 +820,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-024-13056-2.pdf</t>
+        </is>
+      </c>
       <c r="I12" t="b">
         <v>0</v>
       </c>
@@ -807,7 +851,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-024-12935-y.pdf</t>
+        </is>
+      </c>
       <c r="I13" t="b">
         <v>0</v>
       </c>
@@ -834,7 +882,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-024-12727-4.pdf</t>
+        </is>
+      </c>
       <c r="I14" t="b">
         <v>0</v>
       </c>
@@ -861,7 +913,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-023-12268-2.pdf</t>
+        </is>
+      </c>
       <c r="I15" t="b">
         <v>0</v>
       </c>
@@ -888,7 +944,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-023-12318-9.pdf</t>
+        </is>
+      </c>
       <c r="I16" t="b">
         <v>0</v>
       </c>
@@ -915,7 +975,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-024-12438-w.pdf</t>
+        </is>
+      </c>
       <c r="I17" t="b">
         <v>0</v>
       </c>
@@ -942,7 +1006,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-024-12602-2.pdf</t>
+        </is>
+      </c>
       <c r="I18" t="b">
         <v>0</v>
       </c>
@@ -969,7 +1037,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-024-12657-1.pdf</t>
+        </is>
+      </c>
       <c r="I19" t="b">
         <v>0</v>
       </c>
@@ -996,7 +1068,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-024-12471-9.pdf</t>
+        </is>
+      </c>
       <c r="I20" t="b">
         <v>0</v>
       </c>
@@ -1023,7 +1099,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-023-12130-5.pdf</t>
+        </is>
+      </c>
       <c r="I21" t="b">
         <v>0</v>
       </c>
@@ -1050,7 +1130,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-024-13114-9.pdf</t>
+        </is>
+      </c>
       <c r="I22" t="b">
         <v>0</v>
       </c>
@@ -1077,7 +1161,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-024-12925-0.pdf</t>
+        </is>
+      </c>
       <c r="I23" t="b">
         <v>0</v>
       </c>
@@ -1104,7 +1192,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-023-12258-4.pdf</t>
+        </is>
+      </c>
       <c r="I24" t="b">
         <v>0</v>
       </c>
@@ -1131,7 +1223,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-024-12443-z.pdf</t>
+        </is>
+      </c>
       <c r="I25" t="b">
         <v>0</v>
       </c>
@@ -1158,7 +1254,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-024-12993-2.pdf</t>
+        </is>
+      </c>
       <c r="I26" t="b">
         <v>0</v>
       </c>
@@ -1185,7 +1285,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-024-12752-3.pdf</t>
+        </is>
+      </c>
       <c r="I27" t="b">
         <v>0</v>
       </c>
@@ -1212,7 +1316,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-024-13478-y.pdf</t>
+        </is>
+      </c>
       <c r="I28" t="b">
         <v>0</v>
       </c>
@@ -1239,7 +1347,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-024-13116-7.pdf</t>
+        </is>
+      </c>
       <c r="I29" t="b">
         <v>0</v>
       </c>
@@ -1266,7 +1378,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-024-13243-1.pdf</t>
+        </is>
+      </c>
       <c r="I30" t="b">
         <v>0</v>
       </c>
@@ -1293,7 +1409,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-023-12376-z.pdf</t>
+        </is>
+      </c>
       <c r="I31" t="b">
         <v>0</v>
       </c>
@@ -1320,7 +1440,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-024-12669-x.pdf</t>
+        </is>
+      </c>
       <c r="I32" t="b">
         <v>0</v>
       </c>
@@ -1347,7 +1471,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-024-12975-4.pdf</t>
+        </is>
+      </c>
       <c r="I33" t="b">
         <v>0</v>
       </c>
@@ -1374,7 +1502,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-024-13547-2.pdf</t>
+        </is>
+      </c>
       <c r="I34" t="b">
         <v>0</v>
       </c>
@@ -1401,7 +1533,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-024-12902-7.pdf</t>
+        </is>
+      </c>
       <c r="I35" t="b">
         <v>0</v>
       </c>
@@ -1428,7 +1564,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-024-13151-4.pdf</t>
+        </is>
+      </c>
       <c r="I36" t="b">
         <v>0</v>
       </c>
@@ -1455,7 +1595,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-024-13190-x.pdf</t>
+        </is>
+      </c>
       <c r="I37" t="b">
         <v>0</v>
       </c>
@@ -1482,7 +1626,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-024-13311-6.pdf</t>
+        </is>
+      </c>
       <c r="I38" t="b">
         <v>0</v>
       </c>
@@ -1509,7 +1657,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-024-13394-1.pdf</t>
+        </is>
+      </c>
       <c r="I39" t="b">
         <v>0</v>
       </c>
@@ -1536,7 +1688,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-024-13159-w.pdf</t>
+        </is>
+      </c>
       <c r="I40" t="b">
         <v>0</v>
       </c>
@@ -1563,7 +1719,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-024-13070-4.pdf</t>
+        </is>
+      </c>
       <c r="I41" t="b">
         <v>0</v>
       </c>
@@ -1590,7 +1750,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1140_epjc_s10052-024-13414-0.pdf</t>
+        </is>
+      </c>
       <c r="I42" t="b">
         <v>0</v>
       </c>
@@ -1617,7 +1781,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.sab.2024.106865.pdf</t>
+        </is>
+      </c>
       <c r="I43" t="b">
         <v>0</v>
       </c>
@@ -1644,7 +1812,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.colsurfb.2024.113864.pdf</t>
+        </is>
+      </c>
       <c r="I44" t="b">
         <v>0</v>
       </c>
@@ -1671,7 +1843,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1109_TCSII.2024.3372884.pdf</t>
+        </is>
+      </c>
       <c r="I45" t="b">
         <v>0</v>
       </c>
@@ -1698,7 +1874,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1109_TCSII.2023.3324187.pdf</t>
+        </is>
+      </c>
       <c r="I46" t="b">
         <v>0</v>
       </c>
@@ -1725,7 +1905,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.snb.2024.135550.pdf</t>
+        </is>
+      </c>
       <c r="I47" t="b">
         <v>0</v>
       </c>
@@ -1752,7 +1936,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2023.138324.pdf</t>
+        </is>
+      </c>
       <c r="I48" t="b">
         <v>0</v>
       </c>
@@ -1779,7 +1967,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2024.139044.pdf</t>
+        </is>
+      </c>
       <c r="I49" t="b">
         <v>0</v>
       </c>
@@ -1806,7 +1998,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2023.138337.pdf</t>
+        </is>
+      </c>
       <c r="I50" t="b">
         <v>0</v>
       </c>
@@ -1833,7 +2029,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2024.138936.pdf</t>
+        </is>
+      </c>
       <c r="I51" t="b">
         <v>0</v>
       </c>
@@ -1860,7 +2060,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2024.138985.pdf</t>
+        </is>
+      </c>
       <c r="I52" t="b">
         <v>0</v>
       </c>
@@ -1887,7 +2091,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2024.139017.pdf</t>
+        </is>
+      </c>
       <c r="I53" t="b">
         <v>0</v>
       </c>
@@ -1914,7 +2122,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2024.138764.pdf</t>
+        </is>
+      </c>
       <c r="I54" t="b">
         <v>0</v>
       </c>
@@ -1941,7 +2153,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2024.139090.pdf</t>
+        </is>
+      </c>
       <c r="I55" t="b">
         <v>0</v>
       </c>
@@ -1968,7 +2184,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2024.138938.pdf</t>
+        </is>
+      </c>
       <c r="I56" t="b">
         <v>0</v>
       </c>
@@ -1995,7 +2215,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2024.138762.pdf</t>
+        </is>
+      </c>
       <c r="I57" t="b">
         <v>0</v>
       </c>
@@ -2022,7 +2246,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2024.138865.pdf</t>
+        </is>
+      </c>
       <c r="I58" t="b">
         <v>0</v>
       </c>
@@ -2049,7 +2277,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2024.139007.pdf</t>
+        </is>
+      </c>
       <c r="I59" t="b">
         <v>0</v>
       </c>
@@ -2076,7 +2308,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2024.138817.pdf</t>
+        </is>
+      </c>
       <c r="I60" t="b">
         <v>0</v>
       </c>
@@ -2103,7 +2339,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2024.138477.pdf</t>
+        </is>
+      </c>
       <c r="I61" t="b">
         <v>0</v>
       </c>
@@ -2130,7 +2370,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2024.138665.pdf</t>
+        </is>
+      </c>
       <c r="I62" t="b">
         <v>0</v>
       </c>
@@ -2157,7 +2401,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2024.138915.pdf</t>
+        </is>
+      </c>
       <c r="I63" t="b">
         <v>0</v>
       </c>
@@ -2184,7 +2432,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2024.138815.pdf</t>
+        </is>
+      </c>
       <c r="I64" t="b">
         <v>0</v>
       </c>
@@ -2211,7 +2463,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2024.138743.pdf</t>
+        </is>
+      </c>
       <c r="I65" t="b">
         <v>0</v>
       </c>
@@ -2238,7 +2494,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2024.138736.pdf</t>
+        </is>
+      </c>
       <c r="I66" t="b">
         <v>0</v>
       </c>
@@ -2265,7 +2525,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2024.138726.pdf</t>
+        </is>
+      </c>
       <c r="I67" t="b">
         <v>0</v>
       </c>
@@ -2292,7 +2556,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2024.138705.pdf</t>
+        </is>
+      </c>
       <c r="I68" t="b">
         <v>0</v>
       </c>
@@ -2319,7 +2587,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2024.138966.pdf</t>
+        </is>
+      </c>
       <c r="I69" t="b">
         <v>0</v>
       </c>
@@ -2346,7 +2618,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2024.138862.pdf</t>
+        </is>
+      </c>
       <c r="I70" t="b">
         <v>0</v>
       </c>
@@ -2373,7 +2649,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2024.138633.pdf</t>
+        </is>
+      </c>
       <c r="I71" t="b">
         <v>0</v>
       </c>
@@ -2400,7 +2680,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2024.138725.pdf</t>
+        </is>
+      </c>
       <c r="I72" t="b">
         <v>0</v>
       </c>
@@ -2427,7 +2711,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2024.138715.pdf</t>
+        </is>
+      </c>
       <c r="I73" t="b">
         <v>0</v>
       </c>
@@ -2454,7 +2742,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2024.138601.pdf</t>
+        </is>
+      </c>
       <c r="I74" t="b">
         <v>0</v>
       </c>
@@ -2481,7 +2773,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2024.138834.pdf</t>
+        </is>
+      </c>
       <c r="I75" t="b">
         <v>0</v>
       </c>
@@ -2508,7 +2804,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2024.138582.pdf</t>
+        </is>
+      </c>
       <c r="I76" t="b">
         <v>0</v>
       </c>
@@ -2535,7 +2835,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2024.138478.pdf</t>
+        </is>
+      </c>
       <c r="I77" t="b">
         <v>0</v>
       </c>
@@ -2562,7 +2866,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2024.138541.pdf</t>
+        </is>
+      </c>
       <c r="I78" t="b">
         <v>0</v>
       </c>
@@ -2589,7 +2897,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2024.138536.pdf</t>
+        </is>
+      </c>
       <c r="I79" t="b">
         <v>0</v>
       </c>
@@ -2616,7 +2928,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2024.138518.pdf</t>
+        </is>
+      </c>
       <c r="I80" t="b">
         <v>0</v>
       </c>
@@ -2643,7 +2959,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2024.138469.pdf</t>
+        </is>
+      </c>
       <c r="I81" t="b">
         <v>0</v>
       </c>
@@ -2670,7 +2990,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2023.138394.pdf</t>
+        </is>
+      </c>
       <c r="I82" t="b">
         <v>0</v>
       </c>
@@ -2697,7 +3021,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2024.138584.pdf</t>
+        </is>
+      </c>
       <c r="I83" t="b">
         <v>0</v>
       </c>
@@ -2724,7 +3052,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2023.138376.pdf</t>
+        </is>
+      </c>
       <c r="I84" t="b">
         <v>0</v>
       </c>
@@ -2751,7 +3083,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2023.138389.pdf</t>
+        </is>
+      </c>
       <c r="I85" t="b">
         <v>0</v>
       </c>
@@ -2778,7 +3114,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2023.138412.pdf</t>
+        </is>
+      </c>
       <c r="I86" t="b">
         <v>0</v>
       </c>
@@ -2805,7 +3145,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2024.138451.pdf</t>
+        </is>
+      </c>
       <c r="I87" t="b">
         <v>0</v>
       </c>
@@ -2832,7 +3176,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.physletb.2023.138400.pdf</t>
+        </is>
+      </c>
       <c r="I88" t="b">
         <v>0</v>
       </c>
@@ -2859,7 +3207,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1017_prm.2023.43.pdf</t>
+        </is>
+      </c>
       <c r="I89" t="b">
         <v>0</v>
       </c>
@@ -2886,7 +3238,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1039_D3TA06883H.pdf</t>
+        </is>
+      </c>
       <c r="I90" t="b">
         <v>0</v>
       </c>
@@ -2913,7 +3269,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1039_D3TA05468C.pdf</t>
+        </is>
+      </c>
       <c r="I91" t="b">
         <v>0</v>
       </c>
@@ -2940,7 +3300,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevX.14.031051.pdf</t>
+        </is>
+      </c>
       <c r="I92" t="b">
         <v>0</v>
       </c>
@@ -2967,7 +3331,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1039_D3TC02630B.pdf</t>
+        </is>
+      </c>
       <c r="I93" t="b">
         <v>0</v>
       </c>
@@ -2994,7 +3362,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1029_2024JA033083.pdf</t>
+        </is>
+      </c>
       <c r="I94" t="b">
         <v>0</v>
       </c>
@@ -3021,7 +3393,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1029_2024JA033274.pdf</t>
+        </is>
+      </c>
       <c r="I95" t="b">
         <v>0</v>
       </c>
@@ -3048,7 +3424,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.mseb.2024.117189.pdf</t>
+        </is>
+      </c>
       <c r="I96" t="b">
         <v>0</v>
       </c>
@@ -3075,7 +3455,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.mseb.2024.117297.pdf</t>
+        </is>
+      </c>
       <c r="I97" t="b">
         <v>0</v>
       </c>
@@ -3102,7 +3486,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.msea.2023.146027.pdf</t>
+        </is>
+      </c>
       <c r="I98" t="b">
         <v>0</v>
       </c>
@@ -3129,7 +3517,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.msea.2023.145933.pdf</t>
+        </is>
+      </c>
       <c r="I99" t="b">
         <v>0</v>
       </c>
@@ -3156,7 +3548,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.saa.2024.124888.pdf</t>
+        </is>
+      </c>
       <c r="I100" t="b">
         <v>0</v>
       </c>
@@ -3183,7 +3579,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.saa.2024.124681.pdf</t>
+        </is>
+      </c>
       <c r="I101" t="b">
         <v>0</v>
       </c>
@@ -3210,7 +3610,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.saa.2024.124623.pdf</t>
+        </is>
+      </c>
       <c r="I102" t="b">
         <v>0</v>
       </c>
@@ -3237,7 +3641,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.saa.2024.124433.pdf</t>
+        </is>
+      </c>
       <c r="I103" t="b">
         <v>0</v>
       </c>
@@ -3264,7 +3672,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.saa.2024.124432.pdf</t>
+        </is>
+      </c>
       <c r="I104" t="b">
         <v>0</v>
       </c>
@@ -3291,7 +3703,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.saa.2023.123781.pdf</t>
+        </is>
+      </c>
       <c r="I105" t="b">
         <v>0</v>
       </c>
@@ -3318,7 +3734,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1016_j.compositesa.2024.108138.pdf</t>
+        </is>
+      </c>
       <c r="I106" t="b">
         <v>0</v>
       </c>
@@ -3345,7 +3765,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1039_D4TB01015A.pdf</t>
+        </is>
+      </c>
       <c r="I107" t="b">
         <v>0</v>
       </c>
@@ -3372,7 +3796,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevC.110.054912.pdf</t>
+        </is>
+      </c>
       <c r="I108" t="b">
         <v>0</v>
       </c>
@@ -3399,7 +3827,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevC.109.044902.pdf</t>
+        </is>
+      </c>
       <c r="I109" t="b">
         <v>0</v>
       </c>
@@ -3426,7 +3858,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevC.109.054908.pdf</t>
+        </is>
+      </c>
       <c r="I110" t="b">
         <v>0</v>
       </c>
@@ -3453,7 +3889,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevC.109.044901.pdf</t>
+        </is>
+      </c>
       <c r="I111" t="b">
         <v>0</v>
       </c>
@@ -3480,7 +3920,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevC.110.014911.pdf</t>
+        </is>
+      </c>
       <c r="I112" t="b">
         <v>0</v>
       </c>
@@ -3507,7 +3951,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr"/>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevC.110.014906.pdf</t>
+        </is>
+      </c>
       <c r="I113" t="b">
         <v>0</v>
       </c>
@@ -3534,7 +3982,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevC.109.044914.pdf</t>
+        </is>
+      </c>
       <c r="I114" t="b">
         <v>0</v>
       </c>
@@ -3561,7 +4013,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevC.109.064910.pdf</t>
+        </is>
+      </c>
       <c r="I115" t="b">
         <v>0</v>
       </c>
@@ -3588,7 +4044,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevC.109.065202.pdf</t>
+        </is>
+      </c>
       <c r="I116" t="b">
         <v>0</v>
       </c>
@@ -3615,7 +4075,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevC.109.044909.pdf</t>
+        </is>
+      </c>
       <c r="I117" t="b">
         <v>0</v>
       </c>
@@ -3642,7 +4106,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr"/>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevC.109.L051902.pdf</t>
+        </is>
+      </c>
       <c r="I118" t="b">
         <v>0</v>
       </c>
@@ -3669,7 +4137,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevC.109.024907.pdf</t>
+        </is>
+      </c>
       <c r="I119" t="b">
         <v>0</v>
       </c>
@@ -3696,7 +4168,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr"/>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevC.109.024915.pdf</t>
+        </is>
+      </c>
       <c r="I120" t="b">
         <v>0</v>
       </c>
@@ -3723,7 +4199,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr"/>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevC.109.014903.pdf</t>
+        </is>
+      </c>
       <c r="I121" t="b">
         <v>0</v>
       </c>
@@ -3750,7 +4230,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr"/>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevC.109.014911.pdf</t>
+        </is>
+      </c>
       <c r="I122" t="b">
         <v>0</v>
       </c>
@@ -3777,7 +4261,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr"/>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevC.110.054911.pdf</t>
+        </is>
+      </c>
       <c r="I123" t="b">
         <v>0</v>
       </c>
@@ -3804,7 +4292,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr"/>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevC.110.064912.pdf</t>
+        </is>
+      </c>
       <c r="I124" t="b">
         <v>0</v>
       </c>
@@ -3831,7 +4323,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr"/>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevC.110.024901.pdf</t>
+        </is>
+      </c>
       <c r="I125" t="b">
         <v>0</v>
       </c>
@@ -3858,7 +4354,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr"/>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevC.110.044908.pdf</t>
+        </is>
+      </c>
       <c r="I126" t="b">
         <v>0</v>
       </c>
@@ -3885,7 +4385,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr"/>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevC.110.064901.pdf</t>
+        </is>
+      </c>
       <c r="I127" t="b">
         <v>0</v>
       </c>
@@ -3912,7 +4416,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr"/>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevB.109.235126.pdf</t>
+        </is>
+      </c>
       <c r="I128" t="b">
         <v>0</v>
       </c>
@@ -3939,7 +4447,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr"/>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevB.110.064516.pdf</t>
+        </is>
+      </c>
       <c r="I129" t="b">
         <v>0</v>
       </c>
@@ -3966,7 +4478,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr"/>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevB.110.014421.pdf</t>
+        </is>
+      </c>
       <c r="I130" t="b">
         <v>0</v>
       </c>
@@ -3993,7 +4509,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr"/>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevB.110.115413.pdf</t>
+        </is>
+      </c>
       <c r="I131" t="b">
         <v>0</v>
       </c>
@@ -4020,7 +4540,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr"/>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevB.109.155306.pdf</t>
+        </is>
+      </c>
       <c r="I132" t="b">
         <v>0</v>
       </c>
@@ -4047,7 +4571,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr"/>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevB.109.085135.pdf</t>
+        </is>
+      </c>
       <c r="I133" t="b">
         <v>0</v>
       </c>
@@ -4074,7 +4602,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr"/>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevB.109.125144.pdf</t>
+        </is>
+      </c>
       <c r="I134" t="b">
         <v>0</v>
       </c>
@@ -4101,7 +4633,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr"/>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevB.109.115410.pdf</t>
+        </is>
+      </c>
       <c r="I135" t="b">
         <v>0</v>
       </c>
@@ -4128,7 +4664,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr"/>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevB.109.085411.pdf</t>
+        </is>
+      </c>
       <c r="I136" t="b">
         <v>0</v>
       </c>
@@ -4155,7 +4695,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr"/>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevB.110.214510.pdf</t>
+        </is>
+      </c>
       <c r="I137" t="b">
         <v>0</v>
       </c>
@@ -4182,7 +4726,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr"/>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevE.109.034108.pdf</t>
+        </is>
+      </c>
       <c r="I138" t="b">
         <v>0</v>
       </c>
@@ -4209,7 +4757,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr"/>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevE.109.034210.pdf</t>
+        </is>
+      </c>
       <c r="I139" t="b">
         <v>0</v>
       </c>
@@ -4236,7 +4788,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr"/>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevD.110.032004.pdf</t>
+        </is>
+      </c>
       <c r="I140" t="b">
         <v>0</v>
       </c>
@@ -4263,7 +4819,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr"/>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevD.109.072005.pdf</t>
+        </is>
+      </c>
       <c r="I141" t="b">
         <v>0</v>
       </c>
@@ -4290,7 +4850,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr"/>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevD.110.042004.pdf</t>
+        </is>
+      </c>
       <c r="I142" t="b">
         <v>0</v>
       </c>
@@ -4317,7 +4881,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr"/>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevD.109.032010.pdf</t>
+        </is>
+      </c>
       <c r="I143" t="b">
         <v>0</v>
       </c>
@@ -4344,7 +4912,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr"/>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevD.109.095023.pdf</t>
+        </is>
+      </c>
       <c r="I144" t="b">
         <v>0</v>
       </c>
@@ -4371,7 +4943,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr"/>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevD.109.112001.pdf</t>
+        </is>
+      </c>
       <c r="I145" t="b">
         <v>0</v>
       </c>
@@ -4398,7 +4974,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr"/>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevD.109.L111101.pdf</t>
+        </is>
+      </c>
       <c r="I146" t="b">
         <v>0</v>
       </c>
@@ -4425,7 +5005,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr"/>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevD.109.093003.pdf</t>
+        </is>
+      </c>
       <c r="I147" t="b">
         <v>0</v>
       </c>
@@ -4452,7 +5036,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr"/>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevD.109.112009.pdf</t>
+        </is>
+      </c>
       <c r="I148" t="b">
         <v>0</v>
       </c>
@@ -4479,7 +5067,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr"/>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevD.109.114035.pdf</t>
+        </is>
+      </c>
       <c r="I149" t="b">
         <v>0</v>
       </c>
@@ -4506,7 +5098,11 @@
           <t>https://fake.pdf</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr"/>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>output\downloads\10.1103_PhysRevD.109.092011.pdf</t>
+        </is>
+      </c>
       <c r="I150" t="b">
         <v>0</v>
       </c>
